--- a/template.xlsx
+++ b/template.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artiqk\Desktop\cve_web_scraper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Desktop\ESGI\Scripting Python\TP3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{288764A4-F12F-4D82-90C4-422479057911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE3C674-63D8-48A7-913C-2BD593F11A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1 (2)" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="22">
   <si>
     <t>CVE</t>
   </si>
@@ -109,7 +110,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -141,7 +142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -315,11 +316,223 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -327,24 +540,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -352,50 +594,172 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -712,168 +1076,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="115.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="24"/>
-    </row>
-    <row r="5" spans="2:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="15">
         <v>42654</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="12">
         <v>7.8</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="14" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="14" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="14" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="14" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="14" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="14" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="7"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="15" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="3"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="3"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
@@ -884,47 +1252,232 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+    <row r="17" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="29"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="15">
+        <v>42654</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="45">
+        <v>10</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="13"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="13"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+    </row>
+    <row r="21" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="13"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="13"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" s="39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="13"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="41"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="13"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="41"/>
+    </row>
+    <row r="25" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="14"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="44"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F29" t="str">
+        <f>IF(F18&lt;4,"LOW", "OK")</f>
+        <v>OK</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="28">
+    <mergeCell ref="L22:L25"/>
+    <mergeCell ref="M22:M25"/>
+    <mergeCell ref="N22:N25"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="F18:F25"/>
+    <mergeCell ref="G17:N17"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="L18:L21"/>
+    <mergeCell ref="M18:M21"/>
+    <mergeCell ref="N18:N21"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="B5:B12"/>
     <mergeCell ref="C5:C12"/>
@@ -933,7 +1486,436 @@
     <mergeCell ref="F5:F12"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F12">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="greaterThan">
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18:F25">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="between">
+      <formula>0.1</formula>
+      <formula>3.9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="between">
+      <formula>4</formula>
+      <formula>6.9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
+      <formula>7</formula>
+      <formula>8.9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+      <formula>9</formula>
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77E844F-ECE6-440F-98B4-9297D9D00CEE}">
+  <dimension ref="B3:N25"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22:N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="115.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="15">
+        <v>42654</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="12">
+        <v>7.8</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="13"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="13"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="13"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="13"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="14"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="29"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="15">
+        <v>42654</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="24">
+        <v>7.8</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="13"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="13"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="13"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="13"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="13"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="13"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="14"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="L18:L21"/>
+    <mergeCell ref="M18:M21"/>
+    <mergeCell ref="N18:N21"/>
+    <mergeCell ref="G17:N17"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="F18:F25"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="C5:C12"/>
+    <mergeCell ref="D5:D12"/>
+    <mergeCell ref="E5:E12"/>
+    <mergeCell ref="F5:F12"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F5:F12">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18:F25">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Desktop\ESGI\Scripting Python\TP3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE3C674-63D8-48A7-913C-2BD593F11A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2921C1-F736-4AD7-AC85-82449F3D509F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,7 +142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -528,11 +528,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -667,17 +682,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
+  <dxfs count="42">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -687,11 +705,66 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -701,7 +774,183 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1079,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,8 +1381,8 @@
       <c r="E5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="12">
-        <v>7.8</v>
+      <c r="F5" s="46">
+        <v>9</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>10</v>
@@ -1485,27 +1734,43 @@
     <mergeCell ref="E5:E12"/>
     <mergeCell ref="F5:F12"/>
   </mergeCells>
-  <conditionalFormatting sqref="F5:F12">
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="greaterThan">
-      <formula>7</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F18:F25">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="between">
       <formula>0.1</formula>
       <formula>3.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="12" operator="between">
       <formula>4</formula>
       <formula>6.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="between">
       <formula>7</formula>
       <formula>8.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
       <formula>9</formula>
       <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F12">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
+      <formula>9</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
+      <formula>7</formula>
+      <formula>8.9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
+      <formula>4</formula>
+      <formula>6.9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="between">
+      <formula>0.1</formula>
+      <formula>3.9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1910,12 +2175,12 @@
     <mergeCell ref="F5:F12"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F12">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="2" operator="greaterThan">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:F25">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="greaterThan">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
